--- a/Dataset/Folds/Fold_1/Excel/72.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8535" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9519" uniqueCount="1307">
   <si>
     <t>Doi</t>
   </si>
@@ -4143,6 +4143,365 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%0,                            Huilong%Chen%NULL%0,                            Weiming%Yan%NULL%0,                            Danlei%Yang%NULL%0,                            Guang%Chen%NULL%0,                            Ke%Ma%NULL%0,                            Dong%Xu%NULL%0,                            Haijing%Yu%NULL%0,                            Hongwu%Wang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%0,                            Jia%Chen%NULL%0,                            Chen%Ding%NULL%0,                            Xiaoping%Zhang%NULL%0,                            Jiaquan%Huang%NULL%0,                            Meifang%Han%NULL%0,                            Shusheng%Li%NULL%0,                            Xiaoping%Luo%NULL%0,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                             Bohan%Yang%NULL%0,                             Qianwen%Li%NULL%0,                             Lu%Wen%NULL%0,                             Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%0,                             Jiqian%Xu%NULL%0,                             Huaqing%Shu%NULL%0,                             Jia'an%Xia%NULL%0,                             Hong%Liu%NULL%0,                             Yongran%Wu%NULL%0,                             Lu%Zhang%NULL%0,                             Zhui%Yu%NULL%0,                             Minghao%Fang%NULL%0,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%0,                             Shangwen%Pan%NULL%0,                             Xiaojing%Zou%NULL%0,                             Shiying%Yuan%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                             Mengqi%Tu%NULL%0,                             Shipei%Wang%NULL%0,                             Sichao%Chen%NULL%0,                             Wei%Zhou%NULL%0,                             Danyang%Chen%NULL%0,                             Lin%Zhou%NULL%0,                             Min%Wang%NULL%0,                             Yan%Zhao%NULL%0,                             Wen%Zeng%NULL%0,                             Qi%Huang%NULL%0,                             Hai'bo%Xu%NULL%0,                             Zeming%Liu%NULL%0,                             Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                             Jiong%Wu%NULL%0,                             Faqi%Wu%NULL%0,                             Dajing%Guo%NULL%0,                             Linli%Chen%NULL%0,                             Zheng%Fang%NULL%0,                             Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                             Chengcheng%Yu%NULL%1,                             Jing%Qu%NULL%1,                             Lieguang%Zhang%NULL%1,                             Songfeng%Jiang%NULL%1,                             Deyang%Huang%NULL%1,                             Bihua%Chen%NULL%1,                             Zhiping%Zhang%NULL%1,                             Wanhua%Guan%NULL%1,                             Zhoukun%Ling%NULL%1,                             Rui%Jiang%NULL%1,                             Tianli%Hu%NULL%1,                             Yan%Ding%NULL%1,                             Lin%Lin%NULL%1,                             Qingxin%Gan%NULL%1,                             Liangping%Luo%tluolp@jnu.edu.cn%1,                             Xiaoping%Tang%xtang@21cn.com%1,                             Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                             Qiqi%Cao%NULL%2,                             Le%Qin%NULL%2,                             Xiaoyang%Wang%NULL%2,                             Zenghui%Cheng%NULL%2,                             Ashan%Pan%NULL%2,                             Jianyi%Dai%NULL%2,                             Qingfeng%Sun%NULL%2,                             Fengquan%Zhao%NULL%2,                             Jieming%Qu%NULL%0,                             Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                             Qiqi%Cao%NULL%0,                             Le%Qin%NULL%0,                             Xiaoyang%Wang%NULL%0,                             Zenghui%Cheng%NULL%0,                             Ashan%Pan%NULL%0,                             Jianyi%Dai%NULL%0,                             Qingfeng%Sun%NULL%0,                             Fengquan%Zhao%NULL%0,                             Jieming%Qu%NULL%0,                             Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                             Fang%Jiang%NULL%0,                             Wating%Su%NULL%0,                             Chang%Chen%NULL%0,                             Jingli%Chen%NULL%0,                             Wei%Mei%NULL%0,                             Li-Ying%Zhan%NULL%0,                             Yifan%Jia%NULL%0,                             Liangqing%Zhang%NULL%0,                             Danyong%Liu%NULL%0,                             Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                             Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                             Yun%Ling%NULL%0,                             Yun%Ling%NULL%0,                             Tao%Bai%NULL%0,                             Tao%Bai%NULL%0,                             Yusang%Xie%NULL%1,                             Jie%Huang%NULL%2,                             Jie%Huang%NULL%0,                             Jian%Li%NULL%1,                             Weining%Xiong%NULL%1,                             Dexiang%Yang%NULL%1,                             Rong%Chen%NULL%1,                             Fangying%Lu%NULL%1,                             Yunfei%Lu%NULL%2,                             Xuhui%Liu%NULL%1,                             Yuqing%Chen%NULL%2,                             Yuqing%Chen%NULL%0,                             Xin%Li%NULL%0,                             Yong%Li%NULL%1,                             Hanssa Dwarka%Summah%NULL%1,                             Huihuang%Lin%NULL%1,                             Jiayang%Yan%NULL%1,                             Min%Zhou%NULL%0,                             Hongzhou%Lu%NULL%0,                             Hongzhou%Lu%NULL%0,                             Jieming%Qu%NULL%0,                             Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                             Wen%Yin%NULL%0,                             Wen%Yin%NULL%0,                             Zhaowu%Tao%NULL%1,                             Weijun%Tan%NULL%1,                             Yi%Hu%NULL%0,                             Oliver%Schildgen%NULL%2,                             Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                             Yuanyuan%Xing%NULL%0,                             Yu%Xiao%NULL%0,                             Liping%Deng%NULL%0,                             Qiu%Zhao%NULL%0,                             Hongling%Wang%NULL%0,                             Yong%Xiong%NULL%0,                             Zhenshun%Cheng%NULL%0,                             Shicheng%Gao%NULL%0,                             Ke%Liang%NULL%0,                             Mingqi%Luo%NULL%0,                             Tielong%Chen%NULL%0,                             Shihui%Song%NULL%0,                             Zhiyong%Ma%NULL%0,                             Xiaoping%Chen%NULL%0,                             Ruiying%Zheng%NULL%0,                             Qian%Cao%NULL%0,                             Fan%Wang%fanndywang@foxmail.com%0,                             Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                             Xun%Li%NULL%1,                             Hui%Chen%NULL%0,                             Shaonan%Yan%NULL%1,                             Dong%Li%NULL%1,                             Yan%Li%NULL%1,                             Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                             Chang%Hu%NULL%0,                             Linjie%Luo%NULL%0,                             Fang%Fang%NULL%0,                             Yongfeng%Chen%NULL%0,                             Jianguo%Li%NULL%0,                             Zhiyong%Peng%NULL%0,                             Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                             Yongzhen%Fan%NULL%0,                             Ming%Chen%NULL%0,                             Xiaoyan%Wu%NULL%0,                             Lin%Zhang%NULL%0,                             Tao%He%NULL%0,                             Hairong%Wang%NULL%0,                             Jing%Wan%NULL%0,                             Xinghuan%Wang%NULL%0,                             Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0,                             Nancy%Chow%NULL%0,                             Katherine%Fleming-Dutra%NULL%1,                             Ryan%Gierke%NULL%0,                             Aron%Hall%NULL%0,                             Michelle%Hughes%NULL%1,                             Tamara%Pilishvili%NULL%0,                             Matthew%Ritchey%NULL%0,                             Katherine%Roguski%NULL%1,                             Tami%Skoff%NULL%1,                             Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                             Lei%Tu%NULL%0,                             Lei%Tu%NULL%0,                             Pingjun%Zhu%NULL%0,                             Pingjun%Zhu%NULL%0,                             Mi%Mu%NULL%0,                             Mi%Mu%NULL%0,                             Runsheng%Wang%NULL%0,                             Pengcheng%Yang%NULL%0,                             Xi%Wang%NULL%0,                             Chao%Hu%NULL%0,                             Rongyu%Ping%NULL%0,                             Peng%Hu%NULL%0,                             Tianzhi%Li%NULL%0,                             Feng%Cao%NULL%0,                             Christopher%Chang%NULL%0,                             Qinyong%Hu%NULL%0,                             Yang%Jin%NULL%0,                             Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                             Min%Zhou%NULL%0,                             Xuan%Dong%NULL%0,                             Jieming%Qu%NULL%0,                             Fengyun%Gong%NULL%0,                             Yang%Han%NULL%0,                             Yang%Qiu%NULL%0,                             Jingli%Wang%NULL%0,                             Ying%Liu%NULL%0,                             Yuan%Wei%NULL%0,                             Jia'an%Xia%NULL%0,                             Ting%Yu%NULL%0,                             Xinxin%Zhang%NULL%0,                             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                             Yeming%Wang%NULL%0,                             Xingwang%Li%NULL%0,                             Lili%Ren%NULL%0,                             Jianping%Zhao%NULL%0,                             Yi%Hu%NULL%0,                             Li%Zhang%NULL%0,                             Guohui%Fan%NULL%0,                             Jiuyang%Xu%NULL%0,                             Xiaoying%Gu%NULL%0,                             Zhenshun%Cheng%NULL%0,                             Ting%Yu%NULL%0,                             Jiaan%Xia%NULL%0,                             Yuan%Wei%NULL%0,                             Wenjuan%Wu%NULL%0,                             Xuelei%Xie%NULL%0,                             Wen%Yin%NULL%0,                             Hui%Li%NULL%0,                             Min%Liu%NULL%0,                             Yan%Xiao%NULL%0,                             Hong%Gao%NULL%0,                             Li%Guo%NULL%0,                             Jungang%Xie%NULL%0,                             Guangfa%Wang%NULL%0,                             Rongmeng%Jiang%NULL%0,                             Zhancheng%Gao%NULL%0,                             Qi%Jin%NULL%0,                             Jianwei%Wang%wangjw28@163.com%0,                             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                             Yuan-Yuan%Fang%NULL%0,                             Yan%Deng%NULL%0,                             Wei%Liu%NULL%0,                             Mei-Fang%Wang%NULL%1,                             Jing-Ping%Ma%NULL%1,                             Wei%Xiao%NULL%1,                             Ying-Nan%Wang%NULL%1,                             Min-Hua%Zhong%NULL%1,                             Cheng-Hong%Li%NULL%1,                             Guang-Cai%Li%NULL%1,                             Hui-Guo%Liu%NULL%0,                             Xiu-Yuan%Hao%NULL%2,                             Xiu-Yuan%Hao%NULL%0,                             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                             Yang%Yang%NULL%0,                             Cong%Zhang%NULL%0,                             Fengming%Huang%NULL%0,                             Fuxiang%Wang%NULL%0,                             Jing%Yuan%NULL%0,                             Zhaoqin%Wang%NULL%0,                             Jinxiu%Li%NULL%0,                             Jianming%Li%NULL%0,                             Cheng%Feng%NULL%0,                             Zheng%Zhang%NULL%0,                             Lifei%Wang%NULL%0,                             Ling%Peng%NULL%0,                             Li%Chen%NULL%0,                             Yuhao%Qin%NULL%0,                             Dandan%Zhao%NULL%0,                             Shuguang%Tan%NULL%0,                             Lu%Yin%NULL%0,                             Jun%Xu%NULL%0,                             Congzhao%Zhou%NULL%0,                             Chengyu%Jiang%jiang@pumc.edu.cn%0,                             Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Wen-hua%Liang%NULL%0,                             Chun-quan%Ou%NULL%0,                             Jian-xing%He%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%0,                             David S.C.%Hui%NULL%0,                             Bin%Du%NULL%0,                             Lan-juan%Li%NULL%0,                             Guang%Zeng%NULL%0,                             Kwok-Yung%Yuen%NULL%0,                             Ru-chong%Chen%NULL%0,                             Chun-li%Tang%NULL%0,                             Tao%Wang%NULL%0,                             Ping-yan%Chen%NULL%0,                             Jie%Xiang%NULL%0,                             Shi-yue%Li%NULL%0,                             Jin-lin%Wang%NULL%0,                             Zi-jing%Liang%NULL%0,                             Yi-xiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%0,                             Ji-yang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%0,                             Shao-qin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%0,                             Shao-yong%Zhu%NULL%0,                             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                             Li-Min%Liu%NULL%0,                             Wen%Yin%NULL%0,                             Wen%Wang%NULL%0,                             Lu-Lu%Guan%NULL%0,                             Ming-Li%Yuan%NULL%0,                             Yu-Lei%Li%NULL%0,                             Yi%Hu%NULL%0,                             Xu-Yan%Li%NULL%0,                             Bing%Sun%NULL%0,                             Peng%Peng%NULL%0,                             Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                             Wen-hua%Liang%NULL%0,                             Yi%Zhao%NULL%0,                             Heng-rui%Liang%NULL%0,                             Zi-sheng%Chen%NULL%0,                             Yi-min%Li%NULL%0,                             Xiao-qing%Liu%NULL%0,                             Ru-chong%Chen%NULL%0,                             Chun-li%Tang%NULL%0,                             Tao%Wang%NULL%0,                             Chun-quan%Ou%NULL%0,                             Li%Li%NULL%0,                             Ping-yan%Chen%NULL%0,                             Ling%Sang%NULL%0,                             Wei%Wang%NULL%0,                             Jian-fu%Li%NULL%0,                             Cai-chen%Li%NULL%0,                             Li-min%Ou%NULL%0,                             Bo%Cheng%NULL%0,                             Shan%Xiong%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Jie%Xiang%NULL%0,                             Yu%Hu%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%0,                             Yi-xiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%0,                             Ji-yang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%0,                             Shao-qin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%0,                             Shao-yong%Zhu%NULL%0,                             Lin-ling%Cheng%NULL%0,                             Feng%Ye%NULL%0,                             Shi-yue%Li%NULL%0,                             Jin-ping%Zheng%NULL%0,                             Nuo-fu%Zhang%NULL%0,                             Nan-shan%Zhong%NULL%0,                             Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                             Xiao-Xin%Wu%NULL%0,                             Xian-Gao%Jiang%NULL%0,                             Kai-Jin%Xu%NULL%0,                             Ling-Jun%Ying%NULL%0,                             Chun-Lian%Ma%NULL%0,                             Shi-Bo%Li%NULL%0,                             Hua-Ying%Wang%NULL%0,                             Sheng%Zhang%NULL%0,                             Hai-Nv%Gao%NULL%0,                             Ji-Fang%Sheng%NULL%0,                             Hong-Liu%Cai%NULL%0,                             Yun-Qing%Qiu%NULL%0,                             Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                             Zhe%Dai%NULL%1,                             Pingzheng%Mo%NULL%1,                             Xinyu%Li%NULL%1,                             Zhiyong%Ma%NULL%0,                             Shihui%Song%NULL%0,                             Xiaoping%Chen%NULL%0,                             Mingqi%Luo%NULL%0,                             Ke%Liang%NULL%0,                             Shicheng%Gao%NULL%0,                             Yongxi%Zhang%NULL%0,                             Liping%Deng%dengdeng78@126.com%0,                             Yong%Xiong%NULL%0,                             Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                             Wei-jie%Guan%NULL%0,                             Cai-chen%Li%NULL%0,                             Yi-min%Li%NULL%0,                             Heng-rui%Liang%NULL%0,                             Yi%Zhao%NULL%0,                             Xiao-qing%Liu%NULL%0,                             Ling%Sang%NULL%0,                             Ru-chong%Chen%NULL%0,                             Chun-li%Tang%NULL%0,                             Tao%Wang%NULL%0,                             Wei%Wang%NULL%0,                             Qi-hua%He%NULL%0,                             Zi-sheng%Chen%NULL%0,                             Sook-San%Wong%NULL%0,                             Mark%Zanin%NULL%0,                             Jun%Liu%NULL%0,                             Xin%Xu%NULL%0,                             Jun%Huang%NULL%0,                             Jian-fu%Li%NULL%0,                             Li-min%Ou%NULL%0,                             Bo%Cheng%NULL%0,                             Shan%Xiong%NULL%0,                             Zhan-hong%Xie%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%0,                             Yi-xiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%0,                             Ji-yang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%0,                             Shao-qin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%0,                             Shao-yong%Zhu%NULL%0,                             Lin-ling%Cheng%NULL%0,                             Feng%Ye%NULL%0,                             Shi-yue%Li%NULL%0,                             Jin-ping%Zheng%NULL%0,                             Nuo-fu%Zhang%NULL%0,                             Nan-shan%Zhong%NULL%0,                             Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                             Wenbo%He%NULL%0,                             Xiaomei%Yu%NULL%0,                             Dalong%Hu%NULL%0,                             Mingwei%Bao%NULL%0,                             Huafen%Liu%NULL%0,                             Jiali%Zhou%NULL%0,                             Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                             Wenlin%Cheng%NULL%0,                             Lei%Yu%NULL%0,                             Ya-Kun%Liu%NULL%0,                             Xiaoyong%Hu%NULL%0,                             Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                             Huangqing%Ouyang%NULL%1,                             Lingli%Fu%NULL%1,                             Shijie%Wang%NULL%1,                             Jianglong%Han%NULL%1,                             Kejie%Huang%NULL%1,                             Mingfang%Jia%NULL%1,                             Qibin%Song%NULL%1,                             Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                             Di%Wu%NULL%0,                             Huilong%Chen%NULL%0,                             Weiming%Yan%NULL%0,                             Danlei%Yang%NULL%0,                             Guang%Chen%NULL%0,                             Ke%Ma%NULL%0,                             Dong%Xu%NULL%0,                             Haijing%Yu%NULL%0,                             Hongwu%Wang%NULL%0,                             Tao%Wang%NULL%0,                             Wei%Guo%NULL%0,                             Jia%Chen%NULL%0,                             Chen%Ding%NULL%0,                             Xiaoping%Zhang%NULL%0,                             Jiaquan%Huang%NULL%0,                             Meifang%Han%NULL%0,                             Shusheng%Li%NULL%0,                             Xiaoping%Luo%NULL%0,                             Jianping%Zhao%NULL%0,                             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                              Bohan%Yang%NULL%0,                              Qianwen%Li%NULL%0,                              Lu%Wen%NULL%0,                              Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                              Yuan%Yu%NULL%0,                              Jiqian%Xu%NULL%0,                              Huaqing%Shu%NULL%0,                              Jia'an%Xia%NULL%0,                              Hong%Liu%NULL%0,                              Yongran%Wu%NULL%0,                              Lu%Zhang%NULL%0,                              Zhui%Yu%NULL%0,                              Minghao%Fang%NULL%0,                              Ting%Yu%NULL%0,                              Yaxin%Wang%NULL%0,                              Shangwen%Pan%NULL%0,                              Xiaojing%Zou%NULL%0,                              Shiying%Yuan%NULL%0,                              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                              Mengqi%Tu%NULL%0,                              Shipei%Wang%NULL%0,                              Sichao%Chen%NULL%0,                              Wei%Zhou%NULL%0,                              Danyang%Chen%NULL%0,                              Lin%Zhou%NULL%0,                              Min%Wang%NULL%0,                              Yan%Zhao%NULL%0,                              Wen%Zeng%NULL%0,                              Qi%Huang%NULL%0,                              Hai'bo%Xu%NULL%0,                              Zeming%Liu%NULL%0,                              Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                              Jiong%Wu%NULL%0,                              Faqi%Wu%NULL%0,                              Dajing%Guo%NULL%0,                              Linli%Chen%NULL%0,                              Zheng%Fang%NULL%0,                              Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                              Chengcheng%Yu%NULL%1,                              Jing%Qu%NULL%1,                              Lieguang%Zhang%NULL%1,                              Songfeng%Jiang%NULL%1,                              Deyang%Huang%NULL%1,                              Bihua%Chen%NULL%1,                              Zhiping%Zhang%NULL%1,                              Wanhua%Guan%NULL%1,                              Zhoukun%Ling%NULL%1,                              Rui%Jiang%NULL%1,                              Tianli%Hu%NULL%1,                              Yan%Ding%NULL%1,                              Lin%Lin%NULL%1,                              Qingxin%Gan%NULL%1,                              Liangping%Luo%tluolp@jnu.edu.cn%1,                              Xiaoping%Tang%xtang@21cn.com%1,                              Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                              Qiqi%Cao%NULL%2,                              Le%Qin%NULL%2,                              Xiaoyang%Wang%NULL%2,                              Zenghui%Cheng%NULL%2,                              Ashan%Pan%NULL%2,                              Jianyi%Dai%NULL%2,                              Qingfeng%Sun%NULL%2,                              Fengquan%Zhao%NULL%2,                              Jieming%Qu%NULL%0,                              Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                              Qiqi%Cao%NULL%0,                              Le%Qin%NULL%0,                              Xiaoyang%Wang%NULL%0,                              Zenghui%Cheng%NULL%0,                              Ashan%Pan%NULL%0,                              Jianyi%Dai%NULL%0,                              Qingfeng%Sun%NULL%0,                              Fengquan%Zhao%NULL%0,                              Jieming%Qu%NULL%0,                              Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                              Fang%Jiang%NULL%0,                              Wating%Su%NULL%0,                              Chang%Chen%NULL%0,                              Jingli%Chen%NULL%0,                              Wei%Mei%NULL%0,                              Li-Ying%Zhan%NULL%0,                              Yifan%Jia%NULL%0,                              Liangqing%Zhang%NULL%0,                              Danyong%Liu%NULL%0,                              Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                              Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                              Yun%Ling%NULL%0,                              Yun%Ling%NULL%0,                              Tao%Bai%NULL%0,                              Tao%Bai%NULL%0,                              Yusang%Xie%NULL%1,                              Jie%Huang%NULL%2,                              Jie%Huang%NULL%0,                              Jian%Li%NULL%1,                              Weining%Xiong%NULL%1,                              Dexiang%Yang%NULL%1,                              Rong%Chen%NULL%1,                              Fangying%Lu%NULL%1,                              Yunfei%Lu%NULL%2,                              Xuhui%Liu%NULL%1,                              Yuqing%Chen%NULL%2,                              Yuqing%Chen%NULL%0,                              Xin%Li%NULL%0,                              Yong%Li%NULL%1,                              Hanssa Dwarka%Summah%NULL%1,                              Huihuang%Lin%NULL%1,                              Jiayang%Yan%NULL%1,                              Min%Zhou%NULL%0,                              Hongzhou%Lu%NULL%0,                              Hongzhou%Lu%NULL%0,                              Jieming%Qu%NULL%0,                              Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                              Wen%Yin%NULL%0,                              Wen%Yin%NULL%0,                              Zhaowu%Tao%NULL%1,                              Weijun%Tan%NULL%1,                              Yi%Hu%NULL%0,                              Oliver%Schildgen%NULL%2,                              Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                              Yuanyuan%Xing%NULL%0,                              Yu%Xiao%NULL%0,                              Liping%Deng%NULL%0,                              Qiu%Zhao%NULL%0,                              Hongling%Wang%NULL%0,                              Yong%Xiong%NULL%0,                              Zhenshun%Cheng%NULL%0,                              Shicheng%Gao%NULL%0,                              Ke%Liang%NULL%0,                              Mingqi%Luo%NULL%0,                              Tielong%Chen%NULL%0,                              Shihui%Song%NULL%0,                              Zhiyong%Ma%NULL%0,                              Xiaoping%Chen%NULL%0,                              Ruiying%Zheng%NULL%0,                              Qian%Cao%NULL%0,                              Fan%Wang%fanndywang@foxmail.com%0,                              Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                              Xun%Li%NULL%1,                              Hui%Chen%NULL%0,                              Shaonan%Yan%NULL%1,                              Dong%Li%NULL%1,                              Yan%Li%NULL%1,                              Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                              Chang%Hu%NULL%0,                              Linjie%Luo%NULL%0,                              Fang%Fang%NULL%0,                              Yongfeng%Chen%NULL%0,                              Jianguo%Li%NULL%0,                              Zhiyong%Peng%NULL%0,                              Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                              Yongzhen%Fan%NULL%0,                              Ming%Chen%NULL%0,                              Xiaoyan%Wu%NULL%0,                              Lin%Zhang%NULL%0,                              Tao%He%NULL%0,                              Hairong%Wang%NULL%0,                              Jing%Wan%NULL%0,                              Xinghuan%Wang%NULL%0,                              Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                              NULL%NULL%NULL%0,                              NULL%NULL%NULL%0,                              Nancy%Chow%NULL%0,                              Katherine%Fleming-Dutra%NULL%1,                              Ryan%Gierke%NULL%0,                              Aron%Hall%NULL%0,                              Michelle%Hughes%NULL%1,                              Tamara%Pilishvili%NULL%0,                              Matthew%Ritchey%NULL%0,                              Katherine%Roguski%NULL%1,                              Tami%Skoff%NULL%1,                              Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                              Lei%Tu%NULL%0,                              Lei%Tu%NULL%0,                              Pingjun%Zhu%NULL%0,                              Pingjun%Zhu%NULL%0,                              Mi%Mu%NULL%0,                              Mi%Mu%NULL%0,                              Runsheng%Wang%NULL%0,                              Pengcheng%Yang%NULL%0,                              Xi%Wang%NULL%0,                              Chao%Hu%NULL%0,                              Rongyu%Ping%NULL%0,                              Peng%Hu%NULL%0,                              Tianzhi%Li%NULL%0,                              Feng%Cao%NULL%0,                              Christopher%Chang%NULL%0,                              Qinyong%Hu%NULL%0,                              Yang%Jin%NULL%0,                              Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                              Min%Zhou%NULL%0,                              Xuan%Dong%NULL%0,                              Jieming%Qu%NULL%0,                              Fengyun%Gong%NULL%0,                              Yang%Han%NULL%0,                              Yang%Qiu%NULL%0,                              Jingli%Wang%NULL%0,                              Ying%Liu%NULL%0,                              Yuan%Wei%NULL%0,                              Jia'an%Xia%NULL%0,                              Ting%Yu%NULL%0,                              Xinxin%Zhang%NULL%0,                              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                              Yeming%Wang%NULL%0,                              Xingwang%Li%NULL%0,                              Lili%Ren%NULL%0,                              Jianping%Zhao%NULL%0,                              Yi%Hu%NULL%0,                              Li%Zhang%NULL%0,                              Guohui%Fan%NULL%0,                              Jiuyang%Xu%NULL%0,                              Xiaoying%Gu%NULL%0,                              Zhenshun%Cheng%NULL%0,                              Ting%Yu%NULL%0,                              Jiaan%Xia%NULL%0,                              Yuan%Wei%NULL%0,                              Wenjuan%Wu%NULL%0,                              Xuelei%Xie%NULL%0,                              Wen%Yin%NULL%0,                              Hui%Li%NULL%0,                              Min%Liu%NULL%0,                              Yan%Xiao%NULL%0,                              Hong%Gao%NULL%0,                              Li%Guo%NULL%0,                              Jungang%Xie%NULL%0,                              Guangfa%Wang%NULL%0,                              Rongmeng%Jiang%NULL%0,                              Zhancheng%Gao%NULL%0,                              Qi%Jin%NULL%0,                              Jianwei%Wang%wangjw28@163.com%0,                              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                              Yuan-Yuan%Fang%NULL%0,                              Yan%Deng%NULL%0,                              Wei%Liu%NULL%0,                              Mei-Fang%Wang%NULL%1,                              Jing-Ping%Ma%NULL%1,                              Wei%Xiao%NULL%1,                              Ying-Nan%Wang%NULL%1,                              Min-Hua%Zhong%NULL%1,                              Cheng-Hong%Li%NULL%1,                              Guang-Cai%Li%NULL%1,                              Hui-Guo%Liu%NULL%0,                              Xiu-Yuan%Hao%NULL%2,                              Xiu-Yuan%Hao%NULL%0,                              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                              Yang%Yang%NULL%0,                              Cong%Zhang%NULL%0,                              Fengming%Huang%NULL%0,                              Fuxiang%Wang%NULL%0,                              Jing%Yuan%NULL%0,                              Zhaoqin%Wang%NULL%0,                              Jinxiu%Li%NULL%0,                              Jianming%Li%NULL%0,                              Cheng%Feng%NULL%0,                              Zheng%Zhang%NULL%0,                              Lifei%Wang%NULL%0,                              Ling%Peng%NULL%0,                              Li%Chen%NULL%0,                              Yuhao%Qin%NULL%0,                              Dandan%Zhao%NULL%0,                              Shuguang%Tan%NULL%0,                              Lu%Yin%NULL%0,                              Jun%Xu%NULL%0,                              Congzhao%Zhou%NULL%0,                              Chengyu%Jiang%jiang@pumc.edu.cn%0,                              Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                              Zheng-yi%Ni%NULL%0,                              Zheng-yi%Ni%NULL%0,                              Yu%Hu%NULL%0,                              Wen-hua%Liang%NULL%0,                              Chun-quan%Ou%NULL%0,                              Jian-xing%He%NULL%0,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chun-liang%Lei%NULL%0,                              David S.C.%Hui%NULL%0,                              Bin%Du%NULL%0,                              Lan-juan%Li%NULL%0,                              Guang%Zeng%NULL%0,                              Kwok-Yung%Yuen%NULL%0,                              Ru-chong%Chen%NULL%0,                              Chun-li%Tang%NULL%0,                              Tao%Wang%NULL%0,                              Ping-yan%Chen%NULL%0,                              Jie%Xiang%NULL%0,                              Shi-yue%Li%NULL%0,                              Jin-lin%Wang%NULL%0,                              Zi-jing%Liang%NULL%0,                              Yi-xiang%Peng%NULL%0,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Ya-hua%Hu%NULL%0,                              Peng%Peng%NULL%0,                              Jian-ming%Wang%NULL%0,                              Ji-yang%Liu%NULL%0,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhi-jian%Zheng%NULL%0,                              Shao-qin%Qiu%NULL%0,                              Jie%Luo%NULL%0,                              Chang-jiang%Ye%NULL%0,                              Shao-yong%Zhu%NULL%0,                              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                              Li-Min%Liu%NULL%0,                              Wen%Yin%NULL%0,                              Wen%Wang%NULL%0,                              Lu-Lu%Guan%NULL%0,                              Ming-Li%Yuan%NULL%0,                              Yu-Lei%Li%NULL%0,                              Yi%Hu%NULL%0,                              Xu-Yan%Li%NULL%0,                              Bing%Sun%NULL%0,                              Peng%Peng%NULL%0,                              Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                              Wen-hua%Liang%NULL%0,                              Yi%Zhao%NULL%0,                              Heng-rui%Liang%NULL%0,                              Zi-sheng%Chen%NULL%0,                              Yi-min%Li%NULL%0,                              Xiao-qing%Liu%NULL%0,                              Ru-chong%Chen%NULL%0,                              Chun-li%Tang%NULL%0,                              Tao%Wang%NULL%0,                              Chun-quan%Ou%NULL%0,                              Li%Li%NULL%0,                              Ping-yan%Chen%NULL%0,                              Ling%Sang%NULL%0,                              Wei%Wang%NULL%0,                              Jian-fu%Li%NULL%0,                              Cai-chen%Li%NULL%0,                              Li-min%Ou%NULL%0,                              Bo%Cheng%NULL%0,                              Shan%Xiong%NULL%0,                              Zheng-yi%Ni%NULL%0,                              Jie%Xiang%NULL%0,                              Yu%Hu%NULL%0,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chun-liang%Lei%NULL%0,                              Yi-xiang%Peng%NULL%0,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Ya-hua%Hu%NULL%0,                              Peng%Peng%NULL%0,                              Jian-ming%Wang%NULL%0,                              Ji-yang%Liu%NULL%0,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhi-jian%Zheng%NULL%0,                              Shao-qin%Qiu%NULL%0,                              Jie%Luo%NULL%0,                              Chang-jiang%Ye%NULL%0,                              Shao-yong%Zhu%NULL%0,                              Lin-ling%Cheng%NULL%0,                              Feng%Ye%NULL%0,                              Shi-yue%Li%NULL%0,                              Jin-ping%Zheng%NULL%0,                              Nuo-fu%Zhang%NULL%0,                              Nan-shan%Zhong%NULL%0,                              Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                              Xiao-Xin%Wu%NULL%0,                              Xian-Gao%Jiang%NULL%0,                              Kai-Jin%Xu%NULL%0,                              Ling-Jun%Ying%NULL%0,                              Chun-Lian%Ma%NULL%0,                              Shi-Bo%Li%NULL%0,                              Hua-Ying%Wang%NULL%0,                              Sheng%Zhang%NULL%0,                              Hai-Nv%Gao%NULL%0,                              Ji-Fang%Sheng%NULL%0,                              Hong-Liu%Cai%NULL%0,                              Yun-Qing%Qiu%NULL%0,                              Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                              Zhe%Dai%NULL%1,                              Pingzheng%Mo%NULL%1,                              Xinyu%Li%NULL%1,                              Zhiyong%Ma%NULL%0,                              Shihui%Song%NULL%0,                              Xiaoping%Chen%NULL%0,                              Mingqi%Luo%NULL%0,                              Ke%Liang%NULL%0,                              Shicheng%Gao%NULL%0,                              Yongxi%Zhang%NULL%0,                              Liping%Deng%dengdeng78@126.com%0,                              Yong%Xiong%NULL%0,                              Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                              Wei-jie%Guan%NULL%0,                              Cai-chen%Li%NULL%0,                              Yi-min%Li%NULL%0,                              Heng-rui%Liang%NULL%0,                              Yi%Zhao%NULL%0,                              Xiao-qing%Liu%NULL%0,                              Ling%Sang%NULL%0,                              Ru-chong%Chen%NULL%0,                              Chun-li%Tang%NULL%0,                              Tao%Wang%NULL%0,                              Wei%Wang%NULL%0,                              Qi-hua%He%NULL%0,                              Zi-sheng%Chen%NULL%0,                              Sook-San%Wong%NULL%0,                              Mark%Zanin%NULL%0,                              Jun%Liu%NULL%0,                              Xin%Xu%NULL%0,                              Jun%Huang%NULL%0,                              Jian-fu%Li%NULL%0,                              Li-min%Ou%NULL%0,                              Bo%Cheng%NULL%0,                              Shan%Xiong%NULL%0,                              Zhan-hong%Xie%NULL%0,                              Zheng-yi%Ni%NULL%0,                              Yu%Hu%NULL%0,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chun-liang%Lei%NULL%0,                              Yi-xiang%Peng%NULL%0,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Ya-hua%Hu%NULL%0,                              Peng%Peng%NULL%0,                              Jian-ming%Wang%NULL%0,                              Ji-yang%Liu%NULL%0,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhi-jian%Zheng%NULL%0,                              Shao-qin%Qiu%NULL%0,                              Jie%Luo%NULL%0,                              Chang-jiang%Ye%NULL%0,                              Shao-yong%Zhu%NULL%0,                              Lin-ling%Cheng%NULL%0,                              Feng%Ye%NULL%0,                              Shi-yue%Li%NULL%0,                              Jin-ping%Zheng%NULL%0,                              Nuo-fu%Zhang%NULL%0,                              Nan-shan%Zhong%NULL%0,                              Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                              Wenbo%He%NULL%0,                              Xiaomei%Yu%NULL%0,                              Dalong%Hu%NULL%0,                              Mingwei%Bao%NULL%0,                              Huafen%Liu%NULL%0,                              Jiali%Zhou%NULL%0,                              Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                              Wenlin%Cheng%NULL%0,                              Lei%Yu%NULL%0,                              Ya-Kun%Liu%NULL%0,                              Xiaoyong%Hu%NULL%0,                              Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                              Ting%Yu%NULL%0,                              Ronghui%Du%NULL%0,                              Guohui%Fan%NULL%0,                              Ying%Liu%NULL%0,                              Zhibo%Liu%NULL%0,                              Jie%Xiang%NULL%0,                              Yeming%Wang%NULL%0,                              Bin%Song%NULL%0,                              Xiaoying%Gu%NULL%0,                              Lulu%Guan%NULL%0,                              Yuan%Wei%NULL%0,                              Hui%Li%NULL%0,                              Xudong%Wu%NULL%0,                              Jiuyang%Xu%NULL%0,                              Shengjin%Tu%NULL%0,                              Yi%Zhang%NULL%0,                              Hua%Chen%NULL%0,                              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                              Huangqing%Ouyang%NULL%1,                              Lingli%Fu%NULL%1,                              Shijie%Wang%NULL%1,                              Jianglong%Han%NULL%1,                              Kejie%Huang%NULL%1,                              Mingfang%Jia%NULL%1,                              Qibin%Song%NULL%1,                              Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                              Di%Wu%NULL%0,                              Huilong%Chen%NULL%0,                              Weiming%Yan%NULL%0,                              Danlei%Yang%NULL%0,                              Guang%Chen%NULL%0,                              Ke%Ma%NULL%0,                              Dong%Xu%NULL%0,                              Haijing%Yu%NULL%0,                              Hongwu%Wang%NULL%0,                              Tao%Wang%NULL%0,                              Wei%Guo%NULL%0,                              Jia%Chen%NULL%0,                              Chen%Ding%NULL%0,                              Xiaoping%Zhang%NULL%0,                              Jiaquan%Huang%NULL%0,                              Meifang%Han%NULL%0,                              Shusheng%Li%NULL%0,                              Xiaoping%Luo%NULL%0,                              Jianping%Zhao%NULL%0,                              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0, Bohan%Yang%NULL%0, Qianwen%Li%NULL%0, Lu%Wen%NULL%0, Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0, Mengqi%Tu%NULL%0, Shipei%Wang%NULL%0, Sichao%Chen%NULL%0, Wei%Zhou%NULL%0, Danyang%Chen%NULL%0, Lin%Zhou%NULL%0, Min%Wang%NULL%0, Yan%Zhao%NULL%0, Wen%Zeng%NULL%0, Qi%Huang%NULL%0, Hai'bo%Xu%NULL%0, Zeming%Liu%NULL%0, Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0, Jiong%Wu%NULL%0, Faqi%Wu%NULL%0, Dajing%Guo%NULL%0, Linli%Chen%NULL%0, Zheng%Fang%NULL%0, Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0, Chengcheng%Yu%NULL%0, Jing%Qu%NULL%0, Lieguang%Zhang%NULL%0, Songfeng%Jiang%NULL%0, Deyang%Huang%NULL%0, Bihua%Chen%NULL%0, Zhiping%Zhang%NULL%0, Wanhua%Guan%NULL%0, Zhoukun%Ling%NULL%0, Rui%Jiang%NULL%0, Tianli%Hu%NULL%0, Yan%Ding%NULL%0, Lin%Lin%NULL%0, Qingxin%Gan%NULL%0, Liangping%Luo%tluolp@jnu.edu.cn%0, Xiaoping%Tang%xtang@21cn.com%0, Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The coronavirus disease (COVID-19) pandemic is now a global health concern.
+</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0, Yun%Ling%NULL%0, Yun%Ling%NULL%0, Tao%Bai%NULL%0, Tao%Bai%NULL%0, Yusang%Xie%NULL%0, Jie%Huang%NULL%0, Jie%Huang%NULL%0, Jian%Li%NULL%0, Weining%Xiong%NULL%0, Dexiang%Yang%NULL%0, Rong%Chen%NULL%0, Fangying%Lu%NULL%0, Yunfei%Lu%NULL%0, Xuhui%Liu%NULL%0, Yuqing%Chen%NULL%0, Yuqing%Chen%NULL%0, Xin%Li%NULL%0, Yong%Li%NULL%0, Hanssa Dwarka%Summah%NULL%0, Huihuang%Lin%NULL%0, Jiayang%Yan%NULL%0, Min%Zhou%NULL%0, Hongzhou%Lu%NULL%0, Hongzhou%Lu%NULL%0, Jieming%Qu%NULL%0, Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiologic characteristics of 2019 novel coronavirus (2019-nCoV) infected pneumonia (NCIP) which had not been fully understood are especially important for diagnosing and predicting prognosis.
+ We retrospective studied 27 consecutive patients who were confirmed NCIP, the clinical characteristics and CT image findings were collected, and the association of radiologic findings with mortality of patients was evaluated.
+ 27 patients included 12 men and 15 women, with median age of 60 years (IQR 47–69).
+ 17 patients discharged in recovered condition and 10 patients died in hospital.
+ The median age of mortality group was higher compared to survival group (68 (IQR 63–73) vs 55 (IQR 35–60), P = 0.003).
+ The comorbidity rate in mortality group was significantly higher than in survival group (80% vs 29%, P = 0.018).
+ The predominant CT characteristics consisted of ground glass opacity (67%), bilateral sides involved (86%), both peripheral and central distribution (74%), and lower zone involvement (96%).
+ The median CT score of mortality group was higher compared to survival group (30 (IQR 7–13) vs 12 (IQR 11–43), P = 0.021), with more frequency of consolidation (40% vs 6%, P = 0.047) and air bronchogram (60% vs 12%, P = 0.025).
+ An optimal cutoff value of a CT score of 24.5 had a sensitivity of 85.6% and a specificity of 84.5% for the prediction of mortality.
+ 2019-nCoV was more likely to infect elderly people with chronic comorbidities.
+ CT findings of NCIP were featured by predominant ground glass opacities mixed with consolidations, mainly peripheral or combined peripheral and central distributions, bilateral and lower lung zones being mostly involved.
+ A simple CT scoring method was capable to predict mortality.
+</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%0, Wen%Yin%NULL%0, Wen%Yin%NULL%0, Zhaowu%Tao%NULL%1, Weijun%Tan%NULL%1, Yi%Hu%NULL%0, Oliver%Schildgen%NULL%0, Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0, Yuanyuan%Xing%NULL%0, Yu%Xiao%NULL%0, Liping%Deng%NULL%0, Qiu%Zhao%NULL%0, Hongling%Wang%NULL%0, Yong%Xiong%NULL%0, Zhenshun%Cheng%NULL%0, Shicheng%Gao%NULL%0, Ke%Liang%NULL%0, Mingqi%Luo%NULL%0, Tielong%Chen%NULL%0, Shihui%Song%NULL%0, Zhiyong%Ma%NULL%0, Xiaoping%Chen%NULL%0, Ruiying%Zheng%NULL%0, Qian%Cao%NULL%0, Fan%Wang%fanndywang@foxmail.com%0, Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0, Xun%Li%NULL%0, Hui%Chen%NULL%0, Shaonan%Yan%NULL%0, Dong%Li%NULL%0, Yan%Li%NULL%0, Zuojiong%Gong%NULL%0]</t>
+  </si>
+  <si>
+    <t>S. Karger AG</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0, Chang%Hu%NULL%0, Linjie%Luo%NULL%0, Fang%Fang%NULL%0, Yongfeng%Chen%NULL%0, Jianguo%Li%NULL%0, Zhiyong%Peng%NULL%0, Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This case series study evaluates the association of underlying cardiovascular disease and myocardial injury on fatal outcomes in patients with coronavirus disease 2019 (COVID-19).
+</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0, Yongzhen%Fan%NULL%0, Ming%Chen%NULL%0, Xiaoyan%Wu%NULL%0, Lin%Zhang%NULL%0, Tao%He%NULL%0, Hairong%Wang%NULL%0, Jing%Wan%NULL%0, Xinghuan%Wang%NULL%0, Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Nancy%Chow%NULL%0, Katherine%Fleming-Dutra%NULL%0, Ryan%Gierke%NULL%0, Aron%Hall%NULL%0, Michelle%Hughes%NULL%0, Tamara%Pilishvili%NULL%0, Matthew%Ritchey%NULL%0, Katherine%Roguski%NULL%0, Tami%Skoff%NULL%0, Emily%Ussery%NULL%0]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The global death toll from coronavirus disease (COVID-19) virus as of May 12, 2020, exceeds 286,000. The risk factors for death were attributed to advanced age and comorbidities but have not been accurately defined.
+</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0, Lei%Tu%NULL%0, Lei%Tu%NULL%0, Pingjun%Zhu%NULL%0, Pingjun%Zhu%NULL%0, Mi%Mu%NULL%0, Mi%Mu%NULL%0, Runsheng%Wang%NULL%0, Pengcheng%Yang%NULL%0, Xi%Wang%NULL%0, Chao%Hu%NULL%0, Rongyu%Ping%NULL%0, Peng%Hu%NULL%0, Tianzhi%Li%NULL%0, Feng%Cao%NULL%0, Christopher%Chang%NULL%0, Qinyong%Hu%NULL%0, Yang%Jin%NULL%0, Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We report the first 7,755 patients with confirmed COVID-19 in Korea as of March 12th, 2020. A total of 66 deaths have been recorded, giving a case fatality proportion of 0.9%.
+ Older people, and those with comorbidities were at a higher risk of a fatal outcome.
+ The highest number of cases of COVID-19 were in Daegu, followed by Gyeongbuk.
+ This summary may help to understand the disease dynamics in the early phase of the COVID-19 outbreaks, and may therefore, guide future public health measures.
+</t>
+  </si>
+  <si>
+    <t>Korea Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%0, Xuan%Dong%NULL%0, Jieming%Qu%NULL%0, Fengyun%Gong%NULL%0, Yang%Han%NULL%0, Yang%Qiu%NULL%0, Jingli%Wang%NULL%0, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%0, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%0, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Since the identification of the first case of coronavirus disease 2019 (COVID-19), the global number of confirmed cases as of March 15, 2020, is 156,400, with total death in 5,833 (3.7%) worldwide.
+ Here, we summarize the morality data from February 19 when the first mortality occurred to 0 am, March 10, 2020, in Korea with comparison to other countries.
+ The overall case fatality rate of COVID-19 in Korea was 0.7% as of 0 am, March 10, 2020.</t>
+  </si>
+  <si>
+    <t>The Korean Academy of Medical Sciences</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%0, Yan%Deng%NULL%0, Wei%Liu%NULL%0, Mei-Fang%Wang%NULL%0, Jing-Ping%Ma%NULL%0, Wei%Xiao%NULL%0, Ying-Nan%Wang%NULL%0, Min-Hua%Zhong%NULL%0, Cheng-Hong%Li%NULL%0, Guang-Cai%Li%NULL%0, Hui-Guo%Liu%NULL%0, Xiu-Yuan%Hao%NULL%0, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0, Yang%Yang%NULL%0, Cong%Zhang%NULL%0, Fengming%Huang%NULL%0, Fuxiang%Wang%NULL%0, Jing%Yuan%NULL%0, Zhaoqin%Wang%NULL%0, Jinxiu%Li%NULL%0, Jianming%Li%NULL%0, Cheng%Feng%NULL%0, Zheng%Zhang%NULL%0, Lifei%Wang%NULL%0, Ling%Peng%NULL%0, Li%Chen%NULL%0, Yuhao%Qin%NULL%0, Dandan%Zhao%NULL%0, Shuguang%Tan%NULL%0, Lu%Yin%NULL%0, Jun%Xu%NULL%0, Congzhao%Zhou%NULL%0, Chengyu%Jiang%jiang@pumc.edu.cn%0, Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>Science China Press</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The current outbreak of coronavirus disease (COVID-19) pneumonia caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) in Wuhan, China, spreads across national and international borders.
+ The overall death rate of COVID-19 pneumonia in the Chinese population was 4%.
+</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Wen-hua%Liang%NULL%0, Yi%Zhao%NULL%0, Heng-rui%Liang%NULL%0, Zi-sheng%Chen%NULL%0, Yi-min%Li%NULL%0, Xiao-qing%Liu%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Chun-quan%Ou%NULL%0, Li%Li%NULL%0, Ping-yan%Chen%NULL%0, Ling%Sang%NULL%0, Wei%Wang%NULL%0, Jian-fu%Li%NULL%0, Cai-chen%Li%NULL%0, Li-min%Ou%NULL%0, Bo%Cheng%NULL%0, Shan%Xiong%NULL%0, Zheng-yi%Ni%NULL%0, Jie%Xiang%NULL%0, Yu%Hu%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Lin-ling%Cheng%NULL%0, Feng%Ye%NULL%0, Shi-yue%Li%NULL%0, Jin-ping%Zheng%NULL%0, Nuo-fu%Zhang%NULL%0, Nan-shan%Zhong%NULL%0, Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0, Xiao-Xin%Wu%NULL%0, Xian-Gao%Jiang%NULL%0, Kai-Jin%Xu%NULL%0, Ling-Jun%Ying%NULL%0, Chun-Lian%Ma%NULL%0, Shi-Bo%Li%NULL%0, Hua-Ying%Wang%NULL%0, Sheng%Zhang%NULL%0, Hai-Nv%Gao%NULL%0, Ji-Fang%Sheng%NULL%0, Hong-Liu%Cai%NULL%0, Yun-Qing%Qiu%NULL%0, Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0, Zhe%Dai%NULL%0, Pingzheng%Mo%NULL%0, Xinyu%Li%NULL%0, Zhiyong%Ma%NULL%0, Shihui%Song%NULL%0, Xiaoping%Chen%NULL%0, Mingqi%Luo%NULL%0, Ke%Liang%NULL%0, Shicheng%Gao%NULL%0, Yongxi%Zhang%NULL%0, Liping%Deng%dengdeng78@126.com%0, Yong%Xiong%NULL%0, Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0, Wei-jie%Guan%NULL%0, Cai-chen%Li%NULL%0, Yi-min%Li%NULL%0, Heng-rui%Liang%NULL%0, Yi%Zhao%NULL%0, Xiao-qing%Liu%NULL%0, Ling%Sang%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Wei%Wang%NULL%0, Qi-hua%He%NULL%0, Zi-sheng%Chen%NULL%0, Sook-San%Wong%NULL%0, Mark%Zanin%NULL%0, Jun%Liu%NULL%0, Xin%Xu%NULL%0, Jun%Huang%NULL%0, Jian-fu%Li%NULL%0, Li-min%Ou%NULL%0, Bo%Cheng%NULL%0, Shan%Xiong%NULL%0, Zhan-hong%Xie%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Lin-ling%Cheng%NULL%0, Feng%Ye%NULL%0, Shi-yue%Li%NULL%0, Jin-ping%Zheng%NULL%0, Nuo-fu%Zhang%NULL%0, Nan-shan%Zhong%NULL%0, Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              COVID-19 in the elderly patients was severe and highly fatal.
+</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0, Wenbo%He%NULL%0, Xiaomei%Yu%NULL%0, Dalong%Hu%NULL%0, Mingwei%Bao%NULL%0, Huafen%Liu%NULL%0, Jiali%Zhou%NULL%0, Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0, Huangqing%Ouyang%NULL%0, Lingli%Fu%NULL%0, Shijie%Wang%NULL%0, Jianglong%Han%NULL%0, Kejie%Huang%NULL%0, Mingfang%Jia%NULL%0, Qibin%Song%NULL%0, Zhenming%Fu%davidfuzming@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0, Di%Wu%NULL%0, Huilong%Chen%NULL%0, Weiming%Yan%NULL%0, Danlei%Yang%NULL%0, Guang%Chen%NULL%0, Ke%Ma%NULL%0, Dong%Xu%NULL%0, Haijing%Yu%NULL%0, Hongwu%Wang%NULL%0, Tao%Wang%NULL%0, Wei%Guo%NULL%0, Jia%Chen%NULL%0, Chen%Ding%NULL%0, Xiaoping%Zhang%NULL%0, Jiaquan%Huang%NULL%0, Meifang%Han%NULL%0, Shusheng%Li%NULL%0, Xiaoping%Luo%NULL%0, Jianping%Zhao%NULL%0, Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4497,25 +4856,25 @@
         <v>43880.0</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>1160</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>859</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
         <v>69</v>
@@ -4535,7 +4894,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>1161</v>
+        <v>1258</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -4547,10 +4906,10 @@
         <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="4">
@@ -4567,7 +4926,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>1162</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -4579,10 +4938,10 @@
         <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>863</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="5">
@@ -4593,28 +4952,28 @@
         <v>44013.0</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>681</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>461</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>945</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
         <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>946</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -4631,7 +4990,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>1163</v>
+        <v>1261</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -4643,10 +5002,10 @@
         <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>863</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="7">
@@ -4663,7 +5022,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>1164</v>
+        <v>1262</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -4675,10 +5034,10 @@
         <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="8">
@@ -4692,10 +5051,10 @@
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>610</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>1165</v>
+        <v>1264</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -4707,10 +5066,10 @@
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>868</v>
+        <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="9">
@@ -4727,7 +5086,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>1166</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -4739,10 +5098,10 @@
         <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>863</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="10">
@@ -4759,7 +5118,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>1167</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -4771,10 +5130,10 @@
         <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>863</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="11">
@@ -4791,7 +5150,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>1168</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -4803,10 +5162,10 @@
         <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>863</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="12">
@@ -4820,10 +5179,10 @@
         <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>1268</v>
       </c>
       <c r="E12" t="s">
-        <v>1169</v>
+        <v>1269</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -4835,10 +5194,10 @@
         <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="13">
@@ -4852,10 +5211,10 @@
         <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>1271</v>
       </c>
       <c r="E13" t="s">
-        <v>1170</v>
+        <v>1272</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -4867,10 +5226,10 @@
         <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14">
@@ -4887,7 +5246,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>1171</v>
+        <v>1274</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -4899,10 +5258,10 @@
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="15">
@@ -4919,7 +5278,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>1172</v>
+        <v>1275</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -4931,10 +5290,10 @@
         <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="16">
@@ -4951,7 +5310,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>1173</v>
+        <v>1277</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -4963,10 +5322,10 @@
         <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>863</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="17">
@@ -4980,10 +5339,10 @@
         <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>1279</v>
       </c>
       <c r="E17" t="s">
-        <v>1174</v>
+        <v>1280</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -4995,10 +5354,10 @@
         <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="18">
@@ -5009,25 +5368,25 @@
         <v>43977.0</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>1175</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>859</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
         <v>69</v>
@@ -5047,7 +5406,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1176</v>
+        <v>1282</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -5059,10 +5418,10 @@
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="20">
@@ -5073,28 +5432,28 @@
         <v>43942.0</v>
       </c>
       <c r="C20" t="s">
-        <v>476</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>695</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>461</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>945</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
         <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>946</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -5105,28 +5464,28 @@
         <v>43931.0</v>
       </c>
       <c r="C21" t="s">
-        <v>881</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>882</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>1177</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>461</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>884</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
         <v>69</v>
       </c>
       <c r="J21" t="s">
-        <v>962</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -5137,25 +5496,25 @@
         <v>43949.0</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>1178</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>859</v>
+        <v>69</v>
       </c>
       <c r="J22" t="s">
         <v>69</v>
@@ -5172,10 +5531,10 @@
         <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>1284</v>
       </c>
       <c r="E23" t="s">
-        <v>1179</v>
+        <v>1285</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -5187,10 +5546,10 @@
         <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="24">
@@ -5204,7 +5563,7 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>1286</v>
       </c>
       <c r="E24" t="s">
         <v>132</v>
@@ -5219,10 +5578,10 @@
         <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="25">
@@ -5239,7 +5598,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>1180</v>
+        <v>1288</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -5251,10 +5610,10 @@
         <v>58</v>
       </c>
       <c r="I25" t="s">
-        <v>863</v>
+        <v>69</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="26">
@@ -5265,25 +5624,25 @@
         <v>43907.0</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>265</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>1181</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>859</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s">
         <v>69</v>
@@ -5300,7 +5659,7 @@
         <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>1289</v>
       </c>
       <c r="E27" t="s">
         <v>132</v>
@@ -5315,10 +5674,10 @@
         <v>111</v>
       </c>
       <c r="I27" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="28">
@@ -5335,7 +5694,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>1182</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -5347,10 +5706,10 @@
         <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>863</v>
+        <v>69</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="29">
@@ -5367,7 +5726,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>1183</v>
+        <v>1291</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -5379,10 +5738,10 @@
         <v>58</v>
       </c>
       <c r="I29" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="30">
@@ -5399,7 +5758,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>1184</v>
+        <v>1293</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -5411,10 +5770,10 @@
         <v>154</v>
       </c>
       <c r="I30" t="s">
-        <v>868</v>
+        <v>69</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="31">
@@ -5431,7 +5790,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>1185</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -5443,10 +5802,10 @@
         <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="32">
@@ -5460,10 +5819,10 @@
         <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>1296</v>
       </c>
       <c r="E32" t="s">
-        <v>1186</v>
+        <v>161</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -5475,10 +5834,10 @@
         <v>163</v>
       </c>
       <c r="I32" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="33">
@@ -5495,7 +5854,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>1187</v>
+        <v>1297</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -5507,10 +5866,10 @@
         <v>168</v>
       </c>
       <c r="I33" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="34">
@@ -5527,7 +5886,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>1188</v>
+        <v>1299</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -5539,10 +5898,10 @@
         <v>173</v>
       </c>
       <c r="I34" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="35">
@@ -5559,7 +5918,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>1189</v>
+        <v>1301</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -5571,10 +5930,10 @@
         <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="36">
@@ -5591,7 +5950,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>1190</v>
+        <v>1302</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -5603,10 +5962,10 @@
         <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="37">
@@ -5620,10 +5979,10 @@
         <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>1303</v>
       </c>
       <c r="E37" t="s">
-        <v>1191</v>
+        <v>1304</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -5635,10 +5994,10 @@
         <v>187</v>
       </c>
       <c r="I37" t="s">
-        <v>863</v>
+        <v>69</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="38">
@@ -5655,7 +6014,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>1192</v>
+        <v>190</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -5667,10 +6026,10 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="39">
@@ -5687,7 +6046,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>1193</v>
+        <v>194</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -5699,10 +6058,10 @@
         <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>863</v>
+        <v>69</v>
       </c>
       <c r="J39" t="s">
-        <v>69</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="40">
@@ -5716,10 +6075,10 @@
         <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>639</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>1194</v>
+        <v>1305</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -5731,10 +6090,10 @@
         <v>200</v>
       </c>
       <c r="I40" t="s">
-        <v>868</v>
+        <v>69</v>
       </c>
       <c r="J40" t="s">
-        <v>69</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="41">
@@ -5751,7 +6110,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>1195</v>
+        <v>1306</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>
@@ -5763,10 +6122,10 @@
         <v>205</v>
       </c>
       <c r="I41" t="s">
-        <v>861</v>
+        <v>69</v>
       </c>
       <c r="J41" t="s">
-        <v>69</v>
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
